--- a/backend/output/magic22.xlsx
+++ b/backend/output/magic22.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -488,17 +488,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MITS4001</t>
+          <t>MITS5503</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>G10</t>
+          <t>A12</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -525,22 +525,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MITS5507</t>
+          <t>MITS5002</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>A11</t>
+          <t>G5</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Virtual</t>
+          <t>In-Person</t>
         </is>
       </c>
     </row>
@@ -562,17 +562,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MITS4003</t>
+          <t>MITS5501</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>G8</t>
+          <t>G2</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -599,12 +599,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>MITS5503</t>
+          <t>MITS5507</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>A12</t>
+          <t>A11</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -614,7 +614,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>In-Person</t>
+          <t>Virtual</t>
         </is>
       </c>
     </row>
@@ -631,22 +631,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MITS5002</t>
+          <t>MITS4003</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>G5</t>
+          <t>G8</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -668,22 +668,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MITS5501</t>
+          <t>MITS4001</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>G2</t>
+          <t>G10</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -705,22 +705,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>MITS6001</t>
+          <t>MITS4004</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>A10</t>
+          <t>G7</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -742,22 +742,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>MITS4004</t>
+          <t>MITS6001</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>G7</t>
+          <t>A10</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -784,12 +784,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MITS5004</t>
+          <t>MITS5502</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>G3</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>In-Person</t>
+          <t>Virtual</t>
         </is>
       </c>
     </row>
@@ -821,22 +821,22 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>MITS5502</t>
+          <t>MITS5004</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>G3</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Virtual</t>
+          <t>In-Person</t>
         </is>
       </c>
     </row>
